--- a/pandas_text.xlsx
+++ b/pandas_text.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefano\PycharmProjects\wallet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Cibo &amp; Bevande</t>
   </si>
@@ -170,13 +175,16 @@
   </si>
   <si>
     <t>Adjust balance</t>
+  </si>
+  <si>
+    <t>czxcz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,15 +217,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,21 +518,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" collapsed="1">
+    <row r="1" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,15 +542,15 @@
         <v>-703.6400000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-136.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" outlineLevel="1">
+        <v>-136.30000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,7 +558,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -546,23 +566,23 @@
         <v>-529.34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" collapsed="1">
+    <row r="5" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1027.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" outlineLevel="1">
+        <v>-1027.5899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-565.1800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" outlineLevel="1">
+        <v>-565.18000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -570,7 +590,7 @@
         <v>-299</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -578,7 +598,7 @@
         <v>-163.41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" collapsed="1">
+    <row r="9" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -586,7 +606,7 @@
         <v>-1640.84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -594,15 +614,15 @@
         <v>-625</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-650.9399999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" outlineLevel="1">
+        <v>-650.93999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -610,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -618,7 +638,7 @@
         <v>-364.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" collapsed="1">
+    <row r="14" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -626,7 +646,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -634,7 +654,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" collapsed="1">
+    <row r="16" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -642,7 +662,7 @@
         <v>-542.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -650,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -658,7 +678,7 @@
         <v>-398.63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -666,7 +686,7 @@
         <v>-114.58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -674,7 +694,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" collapsed="1">
+    <row r="21" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -682,7 +702,7 @@
         <v>-2530.61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -690,7 +710,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -698,7 +718,7 @@
         <v>-846.52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -706,7 +726,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -714,7 +734,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -722,7 +742,7 @@
         <v>-74.52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -730,15 +750,15 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-616.5700000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" collapsed="1">
+        <v>-616.57000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -746,7 +766,7 @@
         <v>-1216.57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -754,15 +774,15 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
-        <v>-616.5700000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" collapsed="1">
+        <v>-616.57000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -770,7 +790,7 @@
         <v>-102.95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -778,7 +798,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -786,7 +806,7 @@
         <v>-22.95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" collapsed="1">
+    <row r="35" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -794,7 +814,7 @@
         <v>-2025</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -802,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -810,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -818,7 +838,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -826,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -834,7 +854,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" collapsed="1">
+    <row r="41" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -842,7 +862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -850,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -858,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -866,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -874,15 +894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" collapsed="1">
+    <row r="46" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>2699.539999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="1">
+        <v>2699.5399999999981</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -890,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -898,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -906,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -914,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -922,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -930,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -938,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -946,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -954,20 +974,25 @@
         <v>-1520</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="B56">
-        <v>4309.539999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="1">
+        <v>4309.5399999999981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57">
         <v>-90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_text.xlsx
+++ b/pandas_text.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefano\PycharmProjects\wallet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Cibo &amp; Bevande</t>
   </si>
@@ -175,16 +170,13 @@
   </si>
   <si>
     <t>Adjust balance</t>
-  </si>
-  <si>
-    <t>czxcz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,23 +209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -275,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,23 +500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" collapsed="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,15 +522,15 @@
         <v>-703.6400000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-136.30000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>-136.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -558,7 +538,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -566,23 +546,23 @@
         <v>-529.34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" collapsed="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1027.5899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>-1027.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-565.18000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>-565.1800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -590,7 +570,7 @@
         <v>-299</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -598,7 +578,7 @@
         <v>-163.41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" collapsed="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -606,7 +586,7 @@
         <v>-1640.84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -614,15 +594,15 @@
         <v>-625</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-650.93999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>-650.9399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -630,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -638,7 +618,7 @@
         <v>-364.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" collapsed="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -646,7 +626,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -654,7 +634,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" collapsed="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -662,7 +642,7 @@
         <v>-542.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -670,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -678,7 +658,7 @@
         <v>-398.63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -686,7 +666,7 @@
         <v>-114.58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -694,7 +674,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" collapsed="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -702,7 +682,7 @@
         <v>-2530.61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -710,7 +690,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -718,7 +698,7 @@
         <v>-846.52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -726,7 +706,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -734,7 +714,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -742,7 +722,7 @@
         <v>-74.52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -750,15 +730,15 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-616.57000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+        <v>-616.5700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" collapsed="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -766,7 +746,7 @@
         <v>-1216.57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -774,15 +754,15 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
-        <v>-616.57000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+        <v>-616.5700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" collapsed="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -790,7 +770,7 @@
         <v>-102.95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -798,7 +778,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -806,7 +786,7 @@
         <v>-22.95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" collapsed="1">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -814,7 +794,7 @@
         <v>-2025</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -822,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -830,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -838,7 +818,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -846,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -854,7 +834,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" collapsed="1">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -862,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -870,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -878,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -886,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -894,15 +874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" collapsed="1">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>2699.5399999999981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>2699.539999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -910,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -918,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -926,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -934,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -942,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -950,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -958,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -966,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -974,25 +954,20 @@
         <v>-1520</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="B56">
-        <v>4309.5399999999981</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>4309.539999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57">
         <v>-90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_text.xlsx
+++ b/pandas_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Cibo &amp; Bevande</t>
   </si>
@@ -170,6 +170,51 @@
   </si>
   <si>
     <t>Adjust balance</t>
+  </si>
+  <si>
+    <t>Redditi</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Essenziali_Dovute</t>
+  </si>
+  <si>
+    <t>Bollette_Manutenzione</t>
+  </si>
+  <si>
+    <t>Macchina</t>
+  </si>
+  <si>
+    <t>Salute_Beneficienza</t>
+  </si>
+  <si>
+    <t>Indispensabili_Necessità</t>
+  </si>
+  <si>
+    <t>Spesa_Caffe_Lunch</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Volute_NonEssenziali</t>
+  </si>
+  <si>
+    <t>Selfcare(Clothes &amp; Sport)</t>
+  </si>
+  <si>
+    <t>Fun &amp; Hobbies</t>
+  </si>
+  <si>
+    <t>Travel &amp; Events</t>
+  </si>
+  <si>
+    <t>Nulle_to_del</t>
+  </si>
+  <si>
+    <t>Da cancellare</t>
   </si>
 </sst>
 </file>
@@ -504,14 +549,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" collapsed="1">
@@ -519,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-703.6400000000001</v>
+        <v>-240.35</v>
       </c>
     </row>
     <row r="2" spans="1:2" hidden="1" outlineLevel="1">
@@ -527,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-136.3</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" outlineLevel="1">
@@ -535,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" outlineLevel="1">
@@ -543,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-529.34</v>
+        <v>-226.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" collapsed="1">
@@ -551,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1027.59</v>
+        <v>-77.23</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" outlineLevel="1">
@@ -559,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-565.1800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" outlineLevel="1">
@@ -567,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" outlineLevel="1">
@@ -575,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-163.41</v>
+        <v>-77.23</v>
       </c>
     </row>
     <row r="9" spans="1:2" collapsed="1">
@@ -583,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1640.84</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" outlineLevel="1">
@@ -591,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" outlineLevel="1">
@@ -599,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-650.9399999999999</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" outlineLevel="1">
@@ -615,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-364.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" collapsed="1">
@@ -623,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" outlineLevel="1">
@@ -631,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" collapsed="1">
@@ -639,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-542.01</v>
+        <v>-193.58</v>
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" outlineLevel="1">
@@ -655,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-398.63</v>
+        <v>-168.58</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" outlineLevel="1">
@@ -663,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-114.58</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" outlineLevel="1">
@@ -671,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-28.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" collapsed="1">
@@ -679,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-2530.61</v>
+        <v>-566.65</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" outlineLevel="1">
@@ -695,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-846.52</v>
+        <v>-394.65</v>
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" outlineLevel="1">
@@ -703,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" outlineLevel="1">
@@ -711,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-43</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" outlineLevel="1">
@@ -719,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-74.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" hidden="1" outlineLevel="1">
@@ -727,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" outlineLevel="1">
@@ -735,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-616.5700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" collapsed="1">
@@ -743,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1216.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1" outlineLevel="1">
@@ -751,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" hidden="1" outlineLevel="1">
@@ -759,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>-616.5700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" collapsed="1">
@@ -767,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-102.95</v>
+        <v>-34.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1" outlineLevel="1">
@@ -775,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>-80</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34" spans="1:2" hidden="1" outlineLevel="1">
@@ -783,7 +828,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>-22.95</v>
+        <v>-14.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" collapsed="1">
@@ -791,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-2025</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="36" spans="1:2" hidden="1" outlineLevel="1">
@@ -831,7 +876,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" collapsed="1">
@@ -839,7 +884,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>22281.77</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" outlineLevel="1">
@@ -863,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" hidden="1" outlineLevel="1">
@@ -871,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>22281.77</v>
       </c>
     </row>
     <row r="46" spans="1:2" collapsed="1">
@@ -879,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>2699.539999999998</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="47" spans="1:2" hidden="1" outlineLevel="1">
@@ -951,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="B55">
-        <v>-1520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" hidden="1" outlineLevel="1">
@@ -959,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="B56">
-        <v>4309.539999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" hidden="1" outlineLevel="1">
@@ -967,7 +1012,463 @@
         <v>51</v>
       </c>
       <c r="B57">
-        <v>-90</v>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" collapsed="1">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63">
+        <v>22281.77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64">
+        <v>22281.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>22281.77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" collapsed="1">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68">
+        <v>-75.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>-15.28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>-15.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>-34.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" collapsed="1">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80">
+        <v>-408.93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81">
+        <v>-240.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>-14.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>-226.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>-168.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>-168.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" collapsed="1">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92">
+        <v>-671.88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93">
+        <v>-99.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>-77.23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98">
+        <v>-422.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>-394.65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" collapsed="1">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" outlineLevel="1">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" outlineLevel="2">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
